--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD1C874-0828-4DB1-B344-4517937FCDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB79466-0722-43D9-A219-66522859284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Message</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>Hello Shrishty, I obtained your contact information through Bangalore Tech Summit.          |           My name is Tapan and  I represent Akriti Precision Systems, manufacturer of the WORLD's 1st COMPOSITE SUPERSTRUCTURE 3-AXIS CNC MACHINE.                                           100% MADE IN INDIA                                   ZERO Chinese Parts                                    - 70% parts by value are sources from India and the rest from Italy Germany Taiwan Japan and Thailand           |             Product  Technical Specifications Video - https://www.youtube.com/watch?v=iC9diy4BY7w            |             Call or Whatsapp us on +919019054837 or email us on contact@akriti.tech to know more              |                 1 Year - Manufacturers Warranty (All Parts)           |             10 Years - Composite SuperStructure (Custom made by us)             |               Extended Warranty options also available           |              Perfect Machine for Wood MDF Acrylic Plastics with 50 MICRONS REPEAT POSITIONING ACCURACY             |                Soft Metals till Machine grade aluminium   Hard Materials like Granite   Glass can also be milled with an upgrade to a Double Bearing Spindle - Read More - https://akriti.tech/mighty</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>Arshia</t>
+  </si>
+  <si>
+    <t>Sanskar</t>
+  </si>
+  <si>
+    <t>Shruti</t>
+  </si>
+  <si>
+    <t>Shrishty</t>
   </si>
 </sst>
 </file>
@@ -74,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -102,11 +120,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,14 +154,40 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <sz val="9"/>
+        <color rgb="FF202124"/>
+        <name val="Consolas"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -217,18 +270,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:A422" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Contact" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B422" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Contact" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EDAB1C5D-DC78-46F4-93F8-E5728DA2025C}" name="Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -558,7 +612,7 @@
   <dimension ref="A1:C10644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +625,9 @@
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +636,9 @@
       <c r="A2" s="5">
         <v>919910939598</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -589,7 +647,9 @@
       <c r="A3" s="5">
         <v>918383891488</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -598,7 +658,9 @@
       <c r="A4" s="5">
         <v>919868910520</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -607,7 +669,9 @@
       <c r="A5" s="5">
         <v>919319791269</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
@@ -616,1674 +680,1676 @@
       <c r="A6" s="5">
         <v>919599156056</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
+      <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="7"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="7"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="7"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
+      <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="7"/>
+      <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="7"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
+      <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
+      <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
+      <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
+      <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
-      <c r="B51" s="7"/>
+      <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
+      <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
+      <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
+      <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
-      <c r="B58" s="7"/>
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
-      <c r="B59" s="7"/>
+      <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
-      <c r="B60" s="7"/>
+      <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
-      <c r="B61" s="7"/>
+      <c r="B61" s="5"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
-      <c r="B62" s="7"/>
+      <c r="B62" s="5"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
-      <c r="B63" s="7"/>
+      <c r="B63" s="5"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
-      <c r="B64" s="7"/>
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
-      <c r="B65" s="7"/>
+      <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
-      <c r="B66" s="7"/>
+      <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
-      <c r="B67" s="7"/>
+      <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="5"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
-      <c r="B69" s="7"/>
+      <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
-      <c r="B71" s="7"/>
+      <c r="B71" s="5"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
-      <c r="B73" s="7"/>
+      <c r="B73" s="5"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
-      <c r="B74" s="7"/>
+      <c r="B74" s="5"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
-      <c r="B75" s="7"/>
+      <c r="B75" s="5"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
-      <c r="B76" s="7"/>
+      <c r="B76" s="5"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
-      <c r="B77" s="7"/>
+      <c r="B77" s="5"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
-      <c r="B78" s="7"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
-      <c r="B79" s="7"/>
+      <c r="B79" s="5"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
-      <c r="B80" s="7"/>
+      <c r="B80" s="5"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
-      <c r="B81" s="7"/>
+      <c r="B81" s="5"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
-      <c r="B82" s="7"/>
+      <c r="B82" s="5"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
-      <c r="B83" s="7"/>
+      <c r="B83" s="5"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
-      <c r="B84" s="7"/>
+      <c r="B84" s="5"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
-      <c r="B85" s="7"/>
+      <c r="B85" s="5"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
-      <c r="B86" s="7"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
-      <c r="B87" s="7"/>
+      <c r="B87" s="5"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
-      <c r="B88" s="7"/>
+      <c r="B88" s="5"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
-      <c r="B89" s="7"/>
+      <c r="B89" s="5"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
-      <c r="B90" s="7"/>
+      <c r="B90" s="5"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
-      <c r="B91" s="7"/>
+      <c r="B91" s="5"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
-      <c r="B92" s="7"/>
+      <c r="B92" s="5"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
-      <c r="B93" s="7"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
-      <c r="B94" s="7"/>
+      <c r="B94" s="5"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
-      <c r="B95" s="7"/>
+      <c r="B95" s="5"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
-      <c r="B96" s="7"/>
+      <c r="B96" s="5"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
-      <c r="B97" s="7"/>
+      <c r="B97" s="5"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
-      <c r="B98" s="7"/>
+      <c r="B98" s="5"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
-      <c r="B99" s="7"/>
+      <c r="B99" s="5"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
-      <c r="B100" s="7"/>
+      <c r="B100" s="5"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
-      <c r="B101" s="7"/>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
-      <c r="B102" s="7"/>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
-      <c r="B103" s="7"/>
+      <c r="B103" s="5"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
-      <c r="B104" s="7"/>
+      <c r="B104" s="5"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
-      <c r="B105" s="7"/>
+      <c r="B105" s="5"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
-      <c r="B106" s="7"/>
+      <c r="B106" s="5"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
-      <c r="B107" s="7"/>
+      <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
-      <c r="B108" s="7"/>
+      <c r="B108" s="5"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
-      <c r="B109" s="7"/>
+      <c r="B109" s="5"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
-      <c r="B110" s="7"/>
+      <c r="B110" s="5"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
-      <c r="B111" s="7"/>
+      <c r="B111" s="5"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
-      <c r="B112" s="7"/>
+      <c r="B112" s="5"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
-      <c r="B113" s="7"/>
+      <c r="B113" s="5"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
-      <c r="B114" s="7"/>
+      <c r="B114" s="5"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
-      <c r="B115" s="7"/>
+      <c r="B115" s="5"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
-      <c r="B116" s="7"/>
+      <c r="B116" s="5"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
-      <c r="B117" s="7"/>
+      <c r="B117" s="5"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="5"/>
-      <c r="B118" s="7"/>
+      <c r="B118" s="5"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="5"/>
-      <c r="B119" s="7"/>
+      <c r="B119" s="5"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
-      <c r="B120" s="7"/>
+      <c r="B120" s="5"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="5"/>
-      <c r="B121" s="7"/>
+      <c r="B121" s="5"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="5"/>
-      <c r="B122" s="7"/>
+      <c r="B122" s="5"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="5"/>
-      <c r="B123" s="7"/>
+      <c r="B123" s="5"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
-      <c r="B124" s="7"/>
+      <c r="B124" s="5"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
-      <c r="B125" s="7"/>
+      <c r="B125" s="5"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
-      <c r="B126" s="7"/>
+      <c r="B126" s="5"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
-      <c r="B127" s="7"/>
+      <c r="B127" s="5"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
-      <c r="B128" s="7"/>
+      <c r="B128" s="5"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
-      <c r="B129" s="7"/>
+      <c r="B129" s="5"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
-      <c r="B130" s="7"/>
+      <c r="B130" s="5"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
-      <c r="B131" s="7"/>
+      <c r="B131" s="5"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
-      <c r="B132" s="7"/>
+      <c r="B132" s="5"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
-      <c r="B133" s="7"/>
+      <c r="B133" s="5"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
-      <c r="B134" s="7"/>
+      <c r="B134" s="5"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
-      <c r="B135" s="7"/>
+      <c r="B135" s="5"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
-      <c r="B136" s="7"/>
+      <c r="B136" s="5"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
-      <c r="B137" s="7"/>
+      <c r="B137" s="5"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
-      <c r="B138" s="7"/>
+      <c r="B138" s="5"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
-      <c r="B139" s="7"/>
+      <c r="B139" s="5"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
-      <c r="B140" s="7"/>
+      <c r="B140" s="5"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
-      <c r="B141" s="7"/>
+      <c r="B141" s="5"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
-      <c r="B142" s="7"/>
+      <c r="B142" s="5"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
-      <c r="B143" s="7"/>
+      <c r="B143" s="5"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="5"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
-      <c r="B145" s="7"/>
+      <c r="B145" s="5"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="5"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="5"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="5"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="5"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
-      <c r="B150" s="7"/>
+      <c r="B150" s="5"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
-      <c r="B151" s="7"/>
+      <c r="B151" s="5"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
-      <c r="B152" s="7"/>
+      <c r="B152" s="5"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
-      <c r="B153" s="7"/>
+      <c r="B153" s="5"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="5"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="5"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="5"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="5"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="5"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="5"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="5"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="5"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="5"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="5"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="5"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="5"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="5"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="5"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="5"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
-      <c r="B169" s="7"/>
+      <c r="B169" s="5"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="5"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
-      <c r="B171" s="7"/>
+      <c r="B171" s="5"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
-      <c r="B172" s="7"/>
+      <c r="B172" s="5"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
-      <c r="B173" s="7"/>
+      <c r="B173" s="5"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
-      <c r="B174" s="7"/>
+      <c r="B174" s="5"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
-      <c r="B175" s="7"/>
+      <c r="B175" s="5"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
-      <c r="B176" s="7"/>
+      <c r="B176" s="5"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
-      <c r="B177" s="7"/>
+      <c r="B177" s="5"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
-      <c r="B178" s="7"/>
+      <c r="B178" s="5"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
-      <c r="B179" s="7"/>
+      <c r="B179" s="5"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
-      <c r="B180" s="7"/>
+      <c r="B180" s="5"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
-      <c r="B181" s="7"/>
+      <c r="B181" s="5"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
-      <c r="B182" s="7"/>
+      <c r="B182" s="5"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
-      <c r="B183" s="7"/>
+      <c r="B183" s="5"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
-      <c r="B184" s="7"/>
+      <c r="B184" s="5"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
-      <c r="B185" s="7"/>
+      <c r="B185" s="5"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
-      <c r="B186" s="7"/>
+      <c r="B186" s="5"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
-      <c r="B187" s="7"/>
+      <c r="B187" s="5"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
-      <c r="B188" s="7"/>
+      <c r="B188" s="5"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
-      <c r="B189" s="7"/>
+      <c r="B189" s="5"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
-      <c r="B190" s="7"/>
+      <c r="B190" s="5"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
-      <c r="B191" s="7"/>
+      <c r="B191" s="5"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
-      <c r="B192" s="7"/>
+      <c r="B192" s="5"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
-      <c r="B193" s="7"/>
+      <c r="B193" s="5"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
-      <c r="B194" s="7"/>
+      <c r="B194" s="5"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
-      <c r="B195" s="7"/>
+      <c r="B195" s="5"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
-      <c r="B196" s="7"/>
+      <c r="B196" s="5"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
-      <c r="B197" s="7"/>
+      <c r="B197" s="5"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
-      <c r="B198" s="7"/>
+      <c r="B198" s="5"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
-      <c r="B199" s="7"/>
+      <c r="B199" s="5"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
-      <c r="B200" s="7"/>
+      <c r="B200" s="5"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
-      <c r="B201" s="7"/>
+      <c r="B201" s="5"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
-      <c r="B202" s="7"/>
+      <c r="B202" s="5"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
-      <c r="B203" s="7"/>
+      <c r="B203" s="5"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
-      <c r="B204" s="7"/>
+      <c r="B204" s="5"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
-      <c r="B205" s="7"/>
+      <c r="B205" s="5"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
-      <c r="B206" s="7"/>
+      <c r="B206" s="5"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
-      <c r="B207" s="7"/>
+      <c r="B207" s="5"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
-      <c r="B208" s="7"/>
+      <c r="B208" s="5"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
-      <c r="B209" s="7"/>
+      <c r="B209" s="5"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
-      <c r="B210" s="7"/>
+      <c r="B210" s="5"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
-      <c r="B211" s="7"/>
+      <c r="B211" s="5"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
-      <c r="B212" s="7"/>
+      <c r="B212" s="5"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
-      <c r="B213" s="7"/>
+      <c r="B213" s="5"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
-      <c r="B214" s="7"/>
+      <c r="B214" s="5"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
-      <c r="B215" s="7"/>
+      <c r="B215" s="5"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
-      <c r="B216" s="7"/>
+      <c r="B216" s="5"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
-      <c r="B217" s="7"/>
+      <c r="B217" s="5"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
-      <c r="B218" s="7"/>
+      <c r="B218" s="5"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
-      <c r="B219" s="7"/>
+      <c r="B219" s="5"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
-      <c r="B220" s="7"/>
+      <c r="B220" s="5"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
-      <c r="B221" s="7"/>
+      <c r="B221" s="5"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
-      <c r="B222" s="7"/>
+      <c r="B222" s="5"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
-      <c r="B223" s="7"/>
+      <c r="B223" s="5"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
-      <c r="B224" s="7"/>
+      <c r="B224" s="5"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
-      <c r="B225" s="7"/>
+      <c r="B225" s="5"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
-      <c r="B226" s="7"/>
+      <c r="B226" s="5"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
-      <c r="B227" s="7"/>
+      <c r="B227" s="5"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="5"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="5"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="5"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
-      <c r="B231" s="7"/>
+      <c r="B231" s="5"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="5"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
-      <c r="B233" s="7"/>
+      <c r="B233" s="5"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
-      <c r="B234" s="7"/>
+      <c r="B234" s="5"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
-      <c r="B235" s="7"/>
+      <c r="B235" s="5"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="5"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="5"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="5"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
-      <c r="B239" s="7"/>
+      <c r="B239" s="5"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
-      <c r="B240" s="7"/>
+      <c r="B240" s="5"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
-      <c r="B241" s="7"/>
+      <c r="B241" s="5"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="5"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="5"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="5"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="5"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="5"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="5"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="5"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="5"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
-      <c r="B250" s="7"/>
+      <c r="B250" s="5"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
-      <c r="B251" s="7"/>
+      <c r="B251" s="5"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
-      <c r="B252" s="7"/>
+      <c r="B252" s="5"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
-      <c r="B253" s="7"/>
+      <c r="B253" s="5"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
-      <c r="B254" s="7"/>
+      <c r="B254" s="5"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
-      <c r="B255" s="7"/>
+      <c r="B255" s="5"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
-      <c r="B256" s="7"/>
+      <c r="B256" s="5"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
-      <c r="B257" s="7"/>
+      <c r="B257" s="5"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
-      <c r="B258" s="7"/>
+      <c r="B258" s="5"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
-      <c r="B259" s="7"/>
+      <c r="B259" s="5"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
-      <c r="B260" s="7"/>
+      <c r="B260" s="5"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
-      <c r="B261" s="7"/>
+      <c r="B261" s="5"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
-      <c r="B262" s="7"/>
+      <c r="B262" s="5"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
-      <c r="B263" s="7"/>
+      <c r="B263" s="5"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
-      <c r="B264" s="7"/>
+      <c r="B264" s="5"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
-      <c r="B265" s="7"/>
+      <c r="B265" s="5"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
-      <c r="B266" s="7"/>
+      <c r="B266" s="5"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
-      <c r="B267" s="7"/>
+      <c r="B267" s="5"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
-      <c r="B268" s="7"/>
+      <c r="B268" s="5"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
-      <c r="B269" s="7"/>
+      <c r="B269" s="5"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
-      <c r="B270" s="7"/>
+      <c r="B270" s="5"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
-      <c r="B271" s="7"/>
+      <c r="B271" s="5"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
-      <c r="B272" s="7"/>
+      <c r="B272" s="5"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
-      <c r="B273" s="7"/>
+      <c r="B273" s="5"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
-      <c r="B274" s="7"/>
+      <c r="B274" s="5"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
-      <c r="B275" s="7"/>
+      <c r="B275" s="5"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
-      <c r="B276" s="7"/>
+      <c r="B276" s="5"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
-      <c r="B277" s="7"/>
+      <c r="B277" s="5"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="5"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="5"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
-      <c r="B280" s="7"/>
+      <c r="B280" s="5"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
-      <c r="B281" s="7"/>
+      <c r="B281" s="5"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
-      <c r="B282" s="7"/>
+      <c r="B282" s="5"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="5"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="5"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
-      <c r="B285" s="7"/>
+      <c r="B285" s="5"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="5"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
-      <c r="B287" s="7"/>
+      <c r="B287" s="5"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="5"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
-      <c r="B289" s="7"/>
+      <c r="B289" s="5"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
-      <c r="B290" s="7"/>
+      <c r="B290" s="5"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
-      <c r="B291" s="7"/>
+      <c r="B291" s="5"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
-      <c r="B292" s="7"/>
+      <c r="B292" s="5"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
-      <c r="B293" s="7"/>
+      <c r="B293" s="5"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
-      <c r="B294" s="7"/>
+      <c r="B294" s="5"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
-      <c r="B295" s="7"/>
+      <c r="B295" s="5"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
-      <c r="B296" s="7"/>
+      <c r="B296" s="5"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
-      <c r="B297" s="7"/>
+      <c r="B297" s="5"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
-      <c r="B298" s="7"/>
+      <c r="B298" s="5"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
-      <c r="B299" s="7"/>
+      <c r="B299" s="5"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
-      <c r="B300" s="7"/>
+      <c r="B300" s="5"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
-      <c r="B301" s="7"/>
+      <c r="B301" s="5"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
-      <c r="B302" s="7"/>
+      <c r="B302" s="5"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
-      <c r="B303" s="7"/>
+      <c r="B303" s="5"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
-      <c r="B304" s="7"/>
+      <c r="B304" s="5"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
-      <c r="B305" s="7"/>
+      <c r="B305" s="5"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
-      <c r="B306" s="7"/>
+      <c r="B306" s="5"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
-      <c r="B307" s="7"/>
+      <c r="B307" s="5"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
-      <c r="B308" s="7"/>
+      <c r="B308" s="5"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
-      <c r="B309" s="7"/>
+      <c r="B309" s="5"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
-      <c r="B310" s="7"/>
+      <c r="B310" s="5"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
-      <c r="B311" s="7"/>
+      <c r="B311" s="5"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
-      <c r="B312" s="7"/>
+      <c r="B312" s="5"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
-      <c r="B313" s="7"/>
+      <c r="B313" s="5"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
-      <c r="B314" s="7"/>
+      <c r="B314" s="5"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
-      <c r="B315" s="7"/>
+      <c r="B315" s="5"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
-      <c r="B316" s="7"/>
+      <c r="B316" s="5"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
-      <c r="B317" s="7"/>
+      <c r="B317" s="5"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
-      <c r="B318" s="7"/>
+      <c r="B318" s="5"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
-      <c r="B319" s="7"/>
+      <c r="B319" s="5"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
-      <c r="B320" s="7"/>
+      <c r="B320" s="5"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
-      <c r="B321" s="7"/>
+      <c r="B321" s="5"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
-      <c r="B322" s="7"/>
+      <c r="B322" s="5"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
-      <c r="B323" s="7"/>
+      <c r="B323" s="5"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
-      <c r="B324" s="7"/>
+      <c r="B324" s="5"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
-      <c r="B325" s="7"/>
+      <c r="B325" s="5"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
-      <c r="B326" s="7"/>
+      <c r="B326" s="5"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
-      <c r="B327" s="7"/>
+      <c r="B327" s="5"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
-      <c r="B328" s="7"/>
+      <c r="B328" s="5"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
-      <c r="B329" s="7"/>
+      <c r="B329" s="5"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
-      <c r="B330" s="7"/>
+      <c r="B330" s="5"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
-      <c r="B331" s="7"/>
+      <c r="B331" s="5"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
-      <c r="B332" s="7"/>
+      <c r="B332" s="5"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
-      <c r="B333" s="7"/>
+      <c r="B333" s="5"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
-      <c r="B334" s="7"/>
+      <c r="B334" s="5"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
-      <c r="B335" s="7"/>
+      <c r="B335" s="5"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
-      <c r="B336" s="7"/>
+      <c r="B336" s="5"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
-      <c r="B337" s="7"/>
+      <c r="B337" s="5"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
-      <c r="B338" s="7"/>
+      <c r="B338" s="5"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
-      <c r="B339" s="7"/>
+      <c r="B339" s="5"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
-      <c r="B340" s="7"/>
+      <c r="B340" s="5"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
-      <c r="B341" s="7"/>
+      <c r="B341" s="5"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="5"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
-      <c r="B343" s="7"/>
+      <c r="B343" s="5"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
-      <c r="B344" s="7"/>
+      <c r="B344" s="5"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
-      <c r="B345" s="7"/>
+      <c r="B345" s="5"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="5"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="5"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="5"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
-      <c r="B349" s="7"/>
+      <c r="B349" s="5"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
-      <c r="B350" s="7"/>
+      <c r="B350" s="5"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
-      <c r="B351" s="7"/>
+      <c r="B351" s="5"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
-      <c r="B352" s="7"/>
+      <c r="B352" s="5"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
-      <c r="B353" s="7"/>
+      <c r="B353" s="5"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
-      <c r="B354" s="7"/>
+      <c r="B354" s="5"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
-      <c r="B355" s="7"/>
+      <c r="B355" s="5"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
-      <c r="B356" s="7"/>
+      <c r="B356" s="5"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
-      <c r="B357" s="7"/>
+      <c r="B357" s="5"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
-      <c r="B358" s="7"/>
+      <c r="B358" s="5"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
-      <c r="B359" s="7"/>
+      <c r="B359" s="5"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="5"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
-      <c r="B361" s="7"/>
+      <c r="B361" s="5"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
-      <c r="B362" s="7"/>
+      <c r="B362" s="5"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
-      <c r="B363" s="7"/>
+      <c r="B363" s="5"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
-      <c r="B364" s="7"/>
+      <c r="B364" s="5"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
-      <c r="B365" s="7"/>
+      <c r="B365" s="5"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="5"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
-      <c r="B367" s="7"/>
+      <c r="B367" s="5"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
-      <c r="B368" s="7"/>
+      <c r="B368" s="5"/>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
-      <c r="B369" s="7"/>
+      <c r="B369" s="5"/>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
-      <c r="B370" s="7"/>
+      <c r="B370" s="5"/>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
-      <c r="B371" s="7"/>
+      <c r="B371" s="5"/>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
-      <c r="B372" s="7"/>
+      <c r="B372" s="5"/>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
-      <c r="B373" s="7"/>
+      <c r="B373" s="5"/>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="5"/>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
-      <c r="B375" s="7"/>
+      <c r="B375" s="5"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
-      <c r="B376" s="7"/>
+      <c r="B376" s="5"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
-      <c r="B377" s="7"/>
+      <c r="B377" s="5"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
-      <c r="B378" s="7"/>
+      <c r="B378" s="5"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
-      <c r="B379" s="7"/>
+      <c r="B379" s="5"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="5"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
-      <c r="B381" s="7"/>
+      <c r="B381" s="5"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="5"/>
-      <c r="B382" s="7"/>
+      <c r="B382" s="5"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="5"/>
-      <c r="B383" s="7"/>
+      <c r="B383" s="5"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="5"/>
-      <c r="B384" s="7"/>
+      <c r="B384" s="5"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="5"/>
-      <c r="B385" s="7"/>
+      <c r="B385" s="5"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="5"/>
-      <c r="B386" s="7"/>
+      <c r="B386" s="5"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="5"/>
-      <c r="B387" s="7"/>
+      <c r="B387" s="5"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="5"/>
-      <c r="B388" s="7"/>
+      <c r="B388" s="5"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="5"/>
-      <c r="B389" s="7"/>
+      <c r="B389" s="5"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="5"/>
-      <c r="B390" s="7"/>
+      <c r="B390" s="5"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="5"/>
-      <c r="B391" s="7"/>
+      <c r="B391" s="5"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="5"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="5"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="5"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="5"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="5"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="5"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
-      <c r="B395" s="7"/>
+      <c r="B395" s="5"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="5"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="5"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="5"/>
-      <c r="B397" s="7"/>
+      <c r="B397" s="5"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="5"/>
-      <c r="B398" s="7"/>
+      <c r="B398" s="5"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="5"/>
-      <c r="B399" s="7"/>
+      <c r="B399" s="5"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="5"/>
-      <c r="B400" s="7"/>
+      <c r="B400" s="5"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="5"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="5"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="5"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="5"/>
-      <c r="B403" s="7"/>
+      <c r="B403" s="5"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="5"/>
-      <c r="B404" s="7"/>
+      <c r="B404" s="5"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="5"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="5"/>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="5"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="5"/>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="5"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="5"/>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="5"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="5"/>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="5"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="5"/>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="5"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="5"/>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="5"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="5"/>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="5"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="5"/>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="5"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="5"/>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="5"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="5"/>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="5"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="5"/>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="5"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="5"/>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="5"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="5"/>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="5"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="5"/>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="5"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="5"/>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="5"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="5"/>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="5"/>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="5"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B423" s="7"/>

--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB79466-0722-43D9-A219-66522859284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A68BB-BD9A-467F-8435-467F78011154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,27 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Message</t>
   </si>
   <si>
     <t>Contact</t>
-  </si>
-  <si>
-    <t>Hello Aryan, I obtained your contact information through Bangalore Tech Summit.          |           My name is Tapan and  I represent Akriti Precision Systems, manufacturer of the WORLD's 1st COMPOSITE SUPERSTRUCTURE 3-AXIS CNC MACHINE.                                           100% MADE IN INDIA                                   ZERO Chinese Parts                                    - 70% parts by value are sources from India and the rest from Italy Germany Taiwan Japan and Thailand           |             Product  Technical Specifications Video - https://www.youtube.com/watch?v=iC9diy4BY7w            |             Call or Whatsapp us on +919019054837 or email us on contact@akriti.tech to know more              |                 1 Year - Manufacturers Warranty (All Parts)           |             10 Years - Composite SuperStructure (Custom made by us)             |               Extended Warranty options also available           |              Perfect Machine for Wood MDF Acrylic Plastics with 50 MICRONS REPEAT POSITIONING ACCURACY             |                Soft Metals till Machine grade aluminium   Hard Materials like Granite   Glass can also be milled with an upgrade to a Double Bearing Spindle - Read More - https://akriti.tech/mighty</t>
-  </si>
-  <si>
-    <t>Hello Arshia, I obtained your contact information through Bangalore Tech Summit.          |           My name is Tapan and  I represent Akriti Precision Systems, manufacturer of the WORLD's 1st COMPOSITE SUPERSTRUCTURE 3-AXIS CNC MACHINE.                                           100% MADE IN INDIA                                   ZERO Chinese Parts                                    - 70% parts by value are sources from India and the rest from Italy Germany Taiwan Japan and Thailand           |             Product  Technical Specifications Video - https://www.youtube.com/watch?v=iC9diy4BY7w            |             Call or Whatsapp us on +919019054837 or email us on contact@akriti.tech to know more              |                 1 Year - Manufacturers Warranty (All Parts)           |             10 Years - Composite SuperStructure (Custom made by us)             |               Extended Warranty options also available           |              Perfect Machine for Wood MDF Acrylic Plastics with 50 MICRONS REPEAT POSITIONING ACCURACY             |                Soft Metals till Machine grade aluminium   Hard Materials like Granite   Glass can also be milled with an upgrade to a Double Bearing Spindle - Read More - https://akriti.tech/mighty</t>
-  </si>
-  <si>
-    <t>Hello Sanskar, I obtained your contact information through Bangalore Tech Summit.          |           My name is Tapan and  I represent Akriti Precision Systems, manufacturer of the WORLD's 1st COMPOSITE SUPERSTRUCTURE 3-AXIS CNC MACHINE.                                           100% MADE IN INDIA                                   ZERO Chinese Parts                                    - 70% parts by value are sources from India and the rest from Italy Germany Taiwan Japan and Thailand           |             Product  Technical Specifications Video - https://www.youtube.com/watch?v=iC9diy4BY7w            |             Call or Whatsapp us on +919019054837 or email us on contact@akriti.tech to know more              |                 1 Year - Manufacturers Warranty (All Parts)           |             10 Years - Composite SuperStructure (Custom made by us)             |               Extended Warranty options also available           |              Perfect Machine for Wood MDF Acrylic Plastics with 50 MICRONS REPEAT POSITIONING ACCURACY             |                Soft Metals till Machine grade aluminium   Hard Materials like Granite   Glass can also be milled with an upgrade to a Double Bearing Spindle - Read More - https://akriti.tech/mighty</t>
-  </si>
-  <si>
-    <t>Hello Shruti, I obtained your contact information through Bangalore Tech Summit.          |           My name is Tapan and  I represent Akriti Precision Systems, manufacturer of the WORLD's 1st COMPOSITE SUPERSTRUCTURE 3-AXIS CNC MACHINE.                                           100% MADE IN INDIA                                   ZERO Chinese Parts                                    - 70% parts by value are sources from India and the rest from Italy Germany Taiwan Japan and Thailand           |             Product  Technical Specifications Video - https://www.youtube.com/watch?v=iC9diy4BY7w            |             Call or Whatsapp us on +919019054837 or email us on contact@akriti.tech to know more              |                 1 Year - Manufacturers Warranty (All Parts)           |             10 Years - Composite SuperStructure (Custom made by us)             |               Extended Warranty options also available           |              Perfect Machine for Wood MDF Acrylic Plastics with 50 MICRONS REPEAT POSITIONING ACCURACY             |                Soft Metals till Machine grade aluminium   Hard Materials like Granite   Glass can also be milled with an upgrade to a Double Bearing Spindle - Read More - https://akriti.tech/mighty</t>
-  </si>
-  <si>
-    <t>Hello Shrishty, I obtained your contact information through Bangalore Tech Summit.          |           My name is Tapan and  I represent Akriti Precision Systems, manufacturer of the WORLD's 1st COMPOSITE SUPERSTRUCTURE 3-AXIS CNC MACHINE.                                           100% MADE IN INDIA                                   ZERO Chinese Parts                                    - 70% parts by value are sources from India and the rest from Italy Germany Taiwan Japan and Thailand           |             Product  Technical Specifications Video - https://www.youtube.com/watch?v=iC9diy4BY7w            |             Call or Whatsapp us on +919019054837 or email us on contact@akriti.tech to know more              |                 1 Year - Manufacturers Warranty (All Parts)           |             10 Years - Composite SuperStructure (Custom made by us)             |               Extended Warranty options also available           |              Perfect Machine for Wood MDF Acrylic Plastics with 50 MICRONS REPEAT POSITIONING ACCURACY             |                Soft Metals till Machine grade aluminium   Hard Materials like Granite   Glass can also be milled with an upgrade to a Double Bearing Spindle - Read More - https://akriti.tech/mighty</t>
   </si>
   <si>
     <t>Name</t>
@@ -166,6 +151,15 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <sz val="9"/>
         <color rgb="FF202124"/>
@@ -187,15 +181,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -273,16 +258,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B422" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Contact" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{EDAB1C5D-DC78-46F4-93F8-E5728DA2025C}" name="Name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EDAB1C5D-DC78-46F4-93F8-E5728DA2025C}" name="Name" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="C1:C6" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Message" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,7 +597,7 @@
   <dimension ref="A1:C10644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,66 +611,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>919910939598</v>
+        <v>9910939598</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="3" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>918383891488</v>
+        <v>8383891488</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>919868910520</v>
+        <v>9868910520</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>919319791269</v>
+        <v>9319791269</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>919599156056</v>
+        <v>9599156056</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>

--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A68BB-BD9A-467F-8435-467F78011154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84CC33B-28D4-4967-85BA-B1F6DBDCB4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Message</t>
   </si>
@@ -35,19 +35,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Aryan</t>
-  </si>
-  <si>
-    <t>Arshia</t>
-  </si>
-  <si>
-    <t>Sanskar</t>
-  </si>
-  <si>
-    <t>Shruti</t>
-  </si>
-  <si>
-    <t>Shrishty</t>
+    <t>xyz</t>
   </si>
 </sst>
 </file>
@@ -597,7 +585,7 @@
   <dimension ref="A1:C10644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +607,7 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>9910939598</v>
+        <v>9999999999</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
@@ -627,37 +615,37 @@
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>8383891488</v>
+        <v>9999999999</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
-        <v>9868910520</v>
+        <v>9999999999</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <v>9319791269</v>
+        <v>9999999999</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>9599156056</v>
+        <v>9999999999</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
     </row>

--- a/Recipients data.xlsx
+++ b/Recipients data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84CC33B-28D4-4967-85BA-B1F6DBDCB4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4313F1-4D12-473A-BCAA-9A99575055BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="8">
   <si>
     <t>Message</t>
   </si>
@@ -35,7 +35,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>xyz</t>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>Arshia</t>
+  </si>
+  <si>
+    <t>Sanskar</t>
+  </si>
+  <si>
+    <t>Shruti</t>
+  </si>
+  <si>
+    <t>Shrishty</t>
   </si>
 </sst>
 </file>
@@ -584,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10644"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,7 +619,7 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>9999999999</v>
+        <v>9910939598</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>3</v>
@@ -615,339 +627,639 @@
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <v>9999999999</v>
+        <v>8383891488</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>9999999999</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>8383891488</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>9999999999</v>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>8383891488</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>9999999999</v>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>8383891488</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B18" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="A29" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
+      <c r="A44" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
+      <c r="A46" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
+      <c r="A50" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
+      <c r="A51" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
+      <c r="A52" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="A54" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
+      <c r="A55" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
+      <c r="A57" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
+      <c r="A59" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
+      <c r="A60" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
+      <c r="A64" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="A65" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
+      <c r="A66" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
+      <c r="A67" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
+      <c r="A68" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
+      <c r="A69" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
+      <c r="A70" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
+      <c r="A71" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
+      <c r="A72" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
+      <c r="A73" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
+      <c r="A74" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="A75" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
+      <c r="A76" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
+      <c r="A77" s="5">
+        <v>9910939598</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
+      <c r="A78" s="5">
+        <v>8383891488</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
+      <c r="A79" s="5">
+        <v>9868910520</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="5">
+        <v>9319791269</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
+      <c r="A81" s="5">
+        <v>9599156056</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
